--- a/data_output/fraction_active.xlsx
+++ b/data_output/fraction_active.xlsx
@@ -632,7 +632,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BA3A</t>
+          <t>BA4A</t>
         </is>
       </c>
       <c r="B12">
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="D12">
-        <v>531</v>
+        <v>211</v>
       </c>
       <c r="E12">
-        <v>577</v>
+        <v>211</v>
       </c>
       <c r="F12">
-        <v>0.9202772963604853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BA3A</t>
+          <t>BA4A</t>
         </is>
       </c>
       <c r="B13">
@@ -668,19 +668,19 @@
         </is>
       </c>
       <c r="D13">
-        <v>982</v>
+        <v>897</v>
       </c>
       <c r="E13">
-        <v>1245</v>
+        <v>900</v>
       </c>
       <c r="F13">
-        <v>0.7887550200803213</v>
+        <v>0.9966666666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BA3A</t>
+          <t>BA4A</t>
         </is>
       </c>
       <c r="B14">
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="D14">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E14">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="F14">
-        <v>0.6467391304347826</v>
+        <v>0.9624060150375939</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BA3A</t>
+          <t>BA4A</t>
         </is>
       </c>
       <c r="B15">
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="E15">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="F15">
-        <v>0.1441441441441441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BA3A</t>
+          <t>BA4A</t>
         </is>
       </c>
       <c r="B16">
@@ -740,19 +740,19 @@
         </is>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="E16">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="F16">
-        <v>0.1396825396825397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BA3A</t>
+          <t>BA4A</t>
         </is>
       </c>
       <c r="B17">
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E17">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F17">
-        <v>0.4074074074074074</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BA3A</t>
+          <t>BA4A</t>
         </is>
       </c>
       <c r="B18">
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="D18">
+        <v>159</v>
+      </c>
+      <c r="E18">
+        <v>159</v>
+      </c>
+      <c r="F18">
         <v>1</v>
-      </c>
-      <c r="E18">
-        <v>14</v>
-      </c>
-      <c r="F18">
-        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BA3A</t>
+          <t>BA4A</t>
         </is>
       </c>
       <c r="B19">
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="F19">
-        <v>0.5862068965517241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BA3A</t>
+          <t>BA4A</t>
         </is>
       </c>
       <c r="B20">
@@ -836,19 +836,19 @@
         </is>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E20">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F20">
-        <v>0.04878048780487805</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BA4A</t>
+          <t>BA3A</t>
         </is>
       </c>
       <c r="B21">
@@ -860,19 +860,19 @@
         </is>
       </c>
       <c r="D21">
-        <v>211</v>
+        <v>531</v>
       </c>
       <c r="E21">
-        <v>211</v>
+        <v>577</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.9202772963604853</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BA4A</t>
+          <t>BA3A</t>
         </is>
       </c>
       <c r="B22">
@@ -884,19 +884,19 @@
         </is>
       </c>
       <c r="D22">
-        <v>897</v>
+        <v>982</v>
       </c>
       <c r="E22">
-        <v>900</v>
+        <v>1245</v>
       </c>
       <c r="F22">
-        <v>0.9966666666666667</v>
+        <v>0.7887550200803213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BA4A</t>
+          <t>BA3A</t>
         </is>
       </c>
       <c r="B23">
@@ -908,19 +908,19 @@
         </is>
       </c>
       <c r="D23">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E23">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="F23">
-        <v>0.9624060150375939</v>
+        <v>0.6467391304347826</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BA4A</t>
+          <t>BA3A</t>
         </is>
       </c>
       <c r="B24">
@@ -932,19 +932,19 @@
         </is>
       </c>
       <c r="D24">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="E24">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.1441441441441441</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BA4A</t>
+          <t>BA3A</t>
         </is>
       </c>
       <c r="B25">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="D25">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="E25">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.1396825396825397</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BA4A</t>
+          <t>BA3A</t>
         </is>
       </c>
       <c r="B26">
@@ -980,19 +980,19 @@
         </is>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="F26">
-        <v>0.8571428571428571</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BA4A</t>
+          <t>BA3A</t>
         </is>
       </c>
       <c r="B27">
@@ -1004,19 +1004,19 @@
         </is>
       </c>
       <c r="D27">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BA4A</t>
+          <t>BA3A</t>
         </is>
       </c>
       <c r="B28">
@@ -1028,19 +1028,19 @@
         </is>
       </c>
       <c r="D28">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.5862068965517241</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BA4A</t>
+          <t>BA3A</t>
         </is>
       </c>
       <c r="B29">
@@ -1052,13 +1052,13 @@
         </is>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F29">
-        <v>0.6</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
   </sheetData>
